--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value857.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value857.xlsx
@@ -351,10 +351,10 @@
         <v>1.023070769942151</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.87274986430388</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value857.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value857.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.023070769942151</v>
+        <v>0.6718438267707825</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.836403608322144</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.471915721893311</v>
       </c>
       <c r="D1">
-        <v>1.87274986430388</v>
+        <v>2.86176586151123</v>
       </c>
       <c r="E1">
-        <v>1.249591309850185</v>
+        <v>1.65913724899292</v>
       </c>
     </row>
   </sheetData>
